--- a/combinatorial/testcase/combinatorial 테스트케이스 A4.xlsx
+++ b/combinatorial/testcase/combinatorial 테스트케이스 A4.xlsx
@@ -5,29 +5,1004 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\연구와 레포지토리\vnv-team-3\combinatorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\연구와 레포지토리\vnv-team-3\combinatorial\testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435ECB01-C5C8-40B4-A189-E273C3FFA653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C697A90A-BDF7-4E9E-A1D0-CCE6573CED0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테스트케이스 포맷" sheetId="1" r:id="rId1"/>
     <sheet name="테스트 실행 포맷" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="267">
+  <si>
+    <t>테스트 스위트</t>
+  </si>
+  <si>
+    <t>테스트 케이스</t>
+  </si>
+  <si>
+    <t>ModeChange</t>
+  </si>
+  <si>
+    <t>DDAY</t>
+  </si>
+  <si>
+    <t>TimeKeeping</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timer</t>
+  </si>
+  <si>
+    <t>Alarm</t>
+  </si>
+  <si>
+    <t>StopWatch</t>
+  </si>
+  <si>
+    <t>WorldTime</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>ModeChange/four/moveForward</t>
+  </si>
+  <si>
+    <t>ModeChange/four/moveBackward</t>
+  </si>
+  <si>
+    <t>ModeChange/four/Exit</t>
+  </si>
+  <si>
+    <t>ModeChange/more/moveForward</t>
+  </si>
+  <si>
+    <t>ModeChange/more/moveBackward</t>
+  </si>
+  <si>
+    <t>ModeChange/less/moveForward</t>
+  </si>
+  <si>
+    <t>ModeChange/less/moveBackward</t>
+  </si>
+  <si>
+    <t>DDAY/DDAYIsActivated/NoDDAYOn/Off/Normal/x/MoveDDAYForward</t>
+  </si>
+  <si>
+    <t>DDAY/DDAYIsActivated/NoDDAYOn/Off/Normal/x/MoveDDAYBackward</t>
+  </si>
+  <si>
+    <t>DDAY/DDAYIsActivated/NoDDAYOn/Off/Normal/x/OnSelectedDDAY</t>
+  </si>
+  <si>
+    <t>DDAY/DDAYIsActivated/NoDDAYOn/Off/Edit/All/MoveFieldForward</t>
+  </si>
+  <si>
+    <t>DDAY/DDAYIsNotActivated</t>
+  </si>
+  <si>
+    <t>DDAY/DDAYIsActivated/1-3DDAYsOn/On/Normal/x/MoveDDAYForward</t>
+  </si>
+  <si>
+    <t>DDAY/DDAYIsActivated/1-3DDAYsOn/On/Normal/x/MoveDDAYBackwar</t>
+  </si>
+  <si>
+    <t>DDAY/DDAYIsActivated/1-3DDAYsOn/On/Normal/x/OffSelectedDDAY</t>
+  </si>
+  <si>
+    <t>DDAY/DDAYIsActivated/1-3DDAYsOn/On/Edit/All/MoveFieldForward</t>
+  </si>
+  <si>
+    <t>DDAY/DDAYIsActivated/1-3DDAYsOn/Off/Normal/x/MoveDDAYForward</t>
+  </si>
+  <si>
+    <t>DDAY/DDAYIsActivated/1-3DDAYsOn/Off/Normal/x/MoveDDAYBackward</t>
+  </si>
+  <si>
+    <t>DDAY/DDAYIsActivated/1-3DDAYsOn/Off/Normal/x/OnSelectedDDAY</t>
+  </si>
+  <si>
+    <t>DDAY/DDAYIsActivated/1-3DDAYsOn/Off/Edit/All/MoveFieldForward</t>
+  </si>
+  <si>
+    <t>DDAY/DDAYIsActivated/4DDAYsOn/On/Normal/x/MoveDDAYForward</t>
+  </si>
+  <si>
+    <t>DDAY/DDAYIsActivated/4DDAYsOn/On/Normal/x/OffSelectedDDAY</t>
+  </si>
+  <si>
+    <t>DDAY/DDAYIsActivated/4DDAYsOn/On/Edit/All/MoveFieldForward</t>
+  </si>
+  <si>
+    <t>TimeKeeping/DDayIsActive/NormalMode/x/CheckClockGoing</t>
+  </si>
+  <si>
+    <t>TimeKeeping/DDayIsActive/NormalMode/x/MoveDDAYForward</t>
+  </si>
+  <si>
+    <t>TimeKeeping/DDayIsActive/NormalMode/x/MoveDDAYBackward</t>
+  </si>
+  <si>
+    <t>TimeKeeping/DDayIsActive/EditMode/Year/MoveFieldForward</t>
+  </si>
+  <si>
+    <t>TimeKeeping/DDayIsActive/EditMode/Month/MoveFieldForward</t>
+  </si>
+  <si>
+    <t>TimeKeeping/DDayIsActive/EditMode/Day/MoveFieldForward</t>
+  </si>
+  <si>
+    <t>TimeKeeping/DDayIsActive/EditMode/Hour/MoveFieldForward</t>
+  </si>
+  <si>
+    <t>TimeKeeping/DDayIsActive/EditMode/Minute/MoveFieldForward</t>
+  </si>
+  <si>
+    <t>TimeKeeping/DDayIsActive/EditMode/Sec/MoveFieldForward</t>
+  </si>
+  <si>
+    <t>TimeKeeping/DDayIsNotActive/NormalMode/x/CheckClockGoing</t>
+  </si>
+  <si>
+    <t>TimeKeeping/DDayIsNotActive/EditMode/Year/MoveFieldForward</t>
+  </si>
+  <si>
+    <t>TimeKeeping/DDayIsNotActive/EditMode/Month/MoveFieldForward</t>
+  </si>
+  <si>
+    <t>TimeKeeping/DDayIsNotActive/EditMode/Day/MoveFieldForward</t>
+  </si>
+  <si>
+    <t>TimeKeeping/DDayIsNotActive/EditMode/Hour/MoveFieldForward</t>
+  </si>
+  <si>
+    <t>TimeKeeping/DDayIsNotActive/EditMode/Minute/MoveFieldForward</t>
+  </si>
+  <si>
+    <t>TimeKeeping/DDayIsNotActive/EditMode/Sec/MoveFieldForward</t>
+  </si>
+  <si>
+    <t>Timer/TimeZero</t>
+  </si>
+  <si>
+    <t>Timer/TimeFuture/Off/Edit/Hour/x/x</t>
+  </si>
+  <si>
+    <t>Timer/TimeFuture/Off/Edit/Minute/x/x</t>
+  </si>
+  <si>
+    <t>Timer/TimeFuture/Off/Edit/Sec/x/x</t>
+  </si>
+  <si>
+    <t>Timer/TimeFuture/Off/Normal/x/Ring/StopRinging</t>
+  </si>
+  <si>
+    <t>Timer/TimeFuture/Off/Normal/x/NoRing/Start</t>
+  </si>
+  <si>
+    <t>Timer/TimeFuture/Off/Normal/x/NoRing/Clear</t>
+  </si>
+  <si>
+    <t>Timer/TimeFuture/Run/Edit/Hour/x/x</t>
+  </si>
+  <si>
+    <t>Timer/TimeFuture/Run/Edit/Minute/x/x</t>
+  </si>
+  <si>
+    <t>Timer/TimeFuture/Run/Edit/Sec/x/x</t>
+  </si>
+  <si>
+    <t>Timer/TimeFuture/Run/Normal/x/Ring/StopRinging</t>
+  </si>
+  <si>
+    <t>Timer/TimeFuture/Run/Normal/x/NoRing/Pause</t>
+  </si>
+  <si>
+    <t>Timer/TimeFuture/Run/Normal/x/NoRing/Clear</t>
+  </si>
+  <si>
+    <t>Timer/TimeFuture/Pus/Edit/Hour/x/x</t>
+  </si>
+  <si>
+    <t>Timer/TimeFuture/Pus/Edit/Minute/x/x</t>
+  </si>
+  <si>
+    <t>Timer/TimeFuture/Pus/Edit/Sec/x/x</t>
+  </si>
+  <si>
+    <t>Timer/TimeFuture/Pus/Normal/x/Ring/StopRinging</t>
+  </si>
+  <si>
+    <t>Timer/TimeFuture/Pus/Normal/x/NoRing/Start</t>
+  </si>
+  <si>
+    <t>Timer/TimeFuture/Pus/Normal/x/NoRing/Clear</t>
+  </si>
+  <si>
+    <t>Alarm/AllOff/Off/Ring/Normal/x/BuzzerOff</t>
+  </si>
+  <si>
+    <t>Alarm/AllOff/Off/Ring/Edit/Hour/MoveFieldForward</t>
+  </si>
+  <si>
+    <t>Alarm/AllOff/Off/Ring/Edit/Hour/Save</t>
+  </si>
+  <si>
+    <t>Alarm/AllOff/Off/Ring/Edit/Hour/BuzzerOff</t>
+  </si>
+  <si>
+    <t>Alarm/AllOff/Off/Ring/Edit/Minute/MoveFieldForward</t>
+  </si>
+  <si>
+    <t>Alarm/AllOff/Off/Ring/Edit/Minute/Save</t>
+  </si>
+  <si>
+    <t>Alarm/AllOff/Off/Ring/Edit/Minute/BuzzerOff</t>
+  </si>
+  <si>
+    <t>Alarm/AllOff/Off/NoRing/Normal/x/x</t>
+  </si>
+  <si>
+    <t>Alarm/AllOff/Off/NoRing/Edit/Hour/MoveFieldForward</t>
+  </si>
+  <si>
+    <t>Alarm/AllOff/Off/NoRing/Edit/Hour/Save</t>
+  </si>
+  <si>
+    <t>Alarm/AllOff/Off/NoRing/Edit/Minute/MoveFieldForward</t>
+  </si>
+  <si>
+    <t>Alarm/AllOff/Off/NoRing/Edit/Minute/Save</t>
+  </si>
+  <si>
+    <t>Alarm/HasOff/On/Ring/Normal/x/BuzzerOff</t>
+  </si>
+  <si>
+    <t>Alarm/HasOff/On/NoRing/Normal/x/CheckBuzzerRings</t>
+  </si>
+  <si>
+    <t>Alarm/HasOff/On/NoRing/Normal/x/BuzzerOff</t>
+  </si>
+  <si>
+    <t>Alarm/HasOff/Off/Ring/Edit/Hour/MoveFieldForward</t>
+  </si>
+  <si>
+    <t>Alarm/HasOff/Off/Ring/Edit/Hour/Save</t>
+  </si>
+  <si>
+    <t>Alarm/HasOff/Off/Ring/Edit/Hour/BuzzerOff</t>
+  </si>
+  <si>
+    <t>Alarm/HasOff/Off/Ring/Edit/Minute/MoveFieldForward</t>
+  </si>
+  <si>
+    <t>Alarm/HasOff/Off/Ring/Edit/Minute/Save</t>
+  </si>
+  <si>
+    <t>Alarm/HasOff/Off/Ring/Edit/Minute/BuzzerOff</t>
+  </si>
+  <si>
+    <t>Alarm/HasOff/Off/NoRing/Normal/x/CheckBuzzerRings</t>
+  </si>
+  <si>
+    <t>Alarm/HasOff/Off/NoRing/Edit/Hour/MoveFieldForward</t>
+  </si>
+  <si>
+    <t>Alarm/HasOff/Off/NoRing/Edit/Hour/Save</t>
+  </si>
+  <si>
+    <t>Alarm/HasOff/Off/NoRing/Edit/Hour/CheckBuzzerRings</t>
+  </si>
+  <si>
+    <t>Alarm/HasOff/Off/NoRing/Edit/Minute/MoveFieldForward</t>
+  </si>
+  <si>
+    <t>Alarm/HasOff/Off/NoRing/Edit/Minute/Save</t>
+  </si>
+  <si>
+    <t>Alarm/HasOff/Off/NoRing/Edit/Minute/CheckBuzzerRings</t>
+  </si>
+  <si>
+    <t>Alarm/AllOn/On/Ring/Normal/x/BuzzerOff</t>
+  </si>
+  <si>
+    <t>Alarm/AllOn/On/NoRing/Normal/x/CheckBuzzerRings</t>
+  </si>
+  <si>
+    <t>StopWatch/Off/x/Clear</t>
+  </si>
+  <si>
+    <t>StopWatch/Off/x/Start</t>
+  </si>
+  <si>
+    <t>StopWatch/Run/x/Stop</t>
+  </si>
+  <si>
+    <t>StopWatch/Pus/x</t>
+  </si>
+  <si>
+    <t>StopWatch/Pus/x/Start</t>
+  </si>
+  <si>
+    <t>StopWatch/Edit/Hour/MoveFieldForward</t>
+  </si>
+  <si>
+    <t>StopWatch/Edit/Minute/MoveFieldForward</t>
+  </si>
+  <si>
+    <t>WorldTime/CurrentCitySEL/SelectOtherCity</t>
+  </si>
+  <si>
+    <t>WorldTime/CurrentCityPAR/SelectOtherCity</t>
+  </si>
+  <si>
+    <t>WorldTime/CurrentCityLON/SelectOtherCity</t>
+  </si>
+  <si>
+    <t>WorldTime/CurrentCityNYC/SelectOtherCity</t>
+  </si>
+  <si>
+    <t>Common/SoundEffectOn/ModeTimeKeeping/PressAndListen</t>
+  </si>
+  <si>
+    <t>Common/SoundEffectOn/ModeTimeKeeping/WaitAlarm</t>
+  </si>
+  <si>
+    <t>Common/SoundEffectOn/ModeTimeKeeping/WaitTimer</t>
+  </si>
+  <si>
+    <t>Common/SoundEffectOn/ModeTimeKeeping/GoBackToTimeKeeping</t>
+  </si>
+  <si>
+    <t>Common/SoundEffectOn/Else/PressAndListen</t>
+  </si>
+  <si>
+    <t>Common/SoundEffectOn/Else/WaitAlarm</t>
+  </si>
+  <si>
+    <t>Common/SoundEffectOn/Else/WaitTimer</t>
+  </si>
+  <si>
+    <t>Common/SoundEffectOff/ModeTimeKeeping/PressAndListen</t>
+  </si>
+  <si>
+    <t>Common/SoundEffectOff/ModeTimeKeeping/WaitAlarm</t>
+  </si>
+  <si>
+    <t>Common/SoundEffectOff/ModeTimeKeeping/WaitTimer</t>
+  </si>
+  <si>
+    <t>Common/SoundEffectOff/Else/PressAndListen</t>
+  </si>
+  <si>
+    <t>Common/SoundEffectOff/Else/WaitAlarm</t>
+  </si>
+  <si>
+    <t>Common/SoundEffectOff/Else/WaitTimer</t>
+  </si>
+  <si>
+    <t>입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기대값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forward 6회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→ TimeKeeper → WorldTime → Alarm → Timer → StopWatch → DDAY로 화면변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→ TimeKeeper → DDAY → StopWatch → Timer → Alarm → WorldTime로 화면변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mode 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4개 미만의 모드가 On 되어있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDAY는 활성화 되었다. DDAY 객체는 0개 활성됐다. 
+선택된 DDAY 객체는 비활성이다. Normal모드에 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDAY는 활성화 되었다. DDAY 객체는 0개 활성됐다. 
+선택된 DDAY 객체는 비활성이다. Edit모드에 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDAY모드는 비활성 되었다. TimerKeeper 화면에 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forward 4회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDAY는 활성화 되었다. DDAY 객체는 1-3개 활성됐다. 
+선택된 DDAY 객체도 활성이다. Edit모드에 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDAY는 활성화 되었다. DDAY 객체는 1-3개 활성됐다. 
+선택된 DDAY 객체도 활성이다. Normal모드에 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adjust 1회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forward 3회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모드를 전환하는데 DDAY 모드 화면이 나타나지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDAY 객체들을 한 번씩 확인하고 무사히 원래 객체가 전시된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDAY 객체의 상태표시가 활성화된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커서가 편집 필드 3개를 모두 선택할 수 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDAY 객체의 상태표시가 비활성화된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDAY는 활성화 되었다. DDAY 객체는 1-3개 활성됐다. 
+선택된 DDAY 객체는 비활성이다. Normal모드에 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDAY/DDAYIsActivated/4DDAYsOn/On/Normal/x/MoveDDAYBackward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reverse 6회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reverse 4회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDAY는 활성화 되었다. DDAY 객체는 모두 활성됐다. 
+선택된 DDAY 객체는 비활성이다. Edit모드에 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDAY는 활성화 되었다. DDAY 객체는 모두 활성됐다. 
+선택된 DDAY 객체도 활성이다. Normal모드에 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDAY는 활성화 되었다. DDAY 객체는 모두 활성됐다. 
+선택된 DDAY 객체는 활성이다. Edit모드에 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDAY는 활성화 되었다. TimeKeeping의 Normal 모드에 놓여있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDAY는 비활성화 되었다. TimeKeeping의 Normal 모드에 놓여있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDAY는 활성화 되었다. TimeKeeping의 Edit 모드에 놓여있다. 커서가 Year를 가리킨다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDAY는 활성화 되었다. TimeKeeping의 Edit 모드에 놓여있다. 커서가 Month를 가리킨다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDAY는 활성화 되었다. TimeKeeping의 Edit 모드에 놓여있다. 커서가 Day를 가리킨다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDAY는 활성화 되었다. TimeKeeping의 Edit 모드에 놓여있다. 커서가 Hour를 가리킨다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDAY는 활성화 되었다. TimeKeeping의 Edit 모드에 놓여있다. 커서가 Sec를 가리킨다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDAY는 활성화 되었다. TimeKeeping의 Edit 모드에 놓여있다. 커서가 Minute를 가리킨다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forward 1회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커서가 Year를 가리킨다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커서가 Hour를 가리킨다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커서가 Day를 가리킨다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커서가 Month를 가리킨다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커서가 Minute를 가리킨다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커서가 Sec를 가리킨다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5초 이상 응시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1초마다 시간이 갱신됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDAY 객체들의 상태표시를 한 번씩 확인하고 무사히 원래 객체의 상태표시가 전시된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDAY는 비활성화 되었다. TimeKeeping의 Edit 모드에 놓여있다. 커서가 Year를 가리킨다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDAY는 비활성화 되었다. TimeKeeping의 Edit 모드에 놓여있다. 커서가 Month를 가리킨다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDAY는 비활성화 되었다. TimeKeeping의 Edit 모드에 놓여있다. 커서가 Day를 가리킨다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDAY는 비활성화 되었다. TimeKeeping의 Edit 모드에 놓여있다. 커서가 Hour를 가리킨다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDAY는 비활성화 되었다. TimeKeeping의 Edit 모드에 놓여있다. 커서가 Minute를 가리킨다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDAY는 비활성화 되었다. TimeKeeping의 Edit 모드에 놓여있다. 커서가 Sec를 가리킨다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4개 이상의 모드가 On되도록 시도한 상태이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4개의 모드가 On 되어있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeKeeper로 화면이 전환된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이머 시간이 0시 0분 0초이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal모드로 돌아감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아무런 버튼 1회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>울리던 버저가 사라짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이머 시간이 0시 0분 0초가 아니다. 타이머 객체는 Off 상태이다. Edit 모드에 놓여있다. 커서는 Sec에 놓였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이머 시간이 0시 0분 0초가 아니다. 타이머 객체는 Off 상태이다. Edit 모드에 놓여있다. 커서는 Minute에 놓였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이머 시간이 0시 0분 0초가 아니다. 타이머 객체는 Off 상태이다. Edit 모드에 놓여있다. 커서는 Hour에 놓였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이머 시간이 0시 0분 0초가 아니다. 타이머 객체는 Off 상태이다. Normal 모드에 놓여있다. 버저가 울리고 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이머 시간이 0시 0분 0초가 아니다. 타이머 객체는 Off 상태이다. Normal 모드에 놓여있다. 버저가 울리지 않고 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mode 1회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버저 객체 상태가 변치 않고 Off 상태이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reverse 1회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이머 객체의 시간이 1초마다 줄어들기 시작한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이머 시간이 0시 0분 0초가 아니다. 타이머 객체는 Run상태이다. Edit 모드에 놓여있다. 커서는 Hour를 가리킨다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 상황이 불가능함을 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이머 시간이 0시 0분 0초가 아니다. 타이머 객체는 Run상태이다. Edit 모드에 놓여있다. 커서는 Minute를 가리킨다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이머 시간이 0시 0분 0초가 아니다. 타이머 객체는 Run상태이다. Normal 모드에 놓여있다. 버저가 울리고 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이머 시간이 0시 0분 0초가 아니다. 타이머 객체는 Run상태이다. Normal 모드에 놓여있다. 버저가 울리지 않고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정해 놓았던 시간이 0시 0분 0초로 초기화된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버저가 사라진다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흘러가던 시간이 멈춘다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정해 놓았던 시간이 0시 0분 0초로 초기화되지 않으며, 흘러가던 시간이 계속 흘러간다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람 객체는 모두 꺼져있다. 선택되어 있는 객체도 당연히 꺼져있다. 
+타이머에 의해 버저가 울리고 있다. 노말 모드에 놓여있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람 객체는 모두 꺼져있다. 선택되어 있는 객체도 당연히 꺼져있다. Edit 모드에 놓여있고, Hour 커서에 놓여있다. 타이머에 의해 버저가 울리고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람 객체는 모두 꺼져있다. 선택되어 있는 객체도 당연히 꺼져있다. Edit 모드에 놓여있고, Minute 커서에 놓여있다. 타이머에 의해 버저가 울리고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람 객체는 모두 꺼져있다. 선택되어 있는 객체도 당연히 꺼져있다. 
+버저는 울리지 않는다. 노말 모드에 놓여있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람 객체는 모두 꺼져있다. 선택되어 있는 객체도 당연히 꺼져있다. 
+버저는 울리지 않는다. Edit 모드에 놓여있고, Hour 커서에 놓여있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람 객체는 모두 꺼져있다. 선택되어 있는 객체도 당연히 꺼져있다. 
+버저는 울리지 않는다. Edit 모드에 놓여있고, Minute 커서에 놓여있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버저가 사라진다, 커서가 Hour에 유지된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버저가 사라진다, 커서가 Minute에 유지된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람 객체를 모두 확인했더니 전부 상태가 Off이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">알람 객체는 1-3개 꺼져있다. 선택된 알람 객체는 켜져있다. 버저가 울리고 있다. 노말 모드에 놓여있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람 객체는 1-3개 꺼져있다. 선택된 알람 객체는 켜져있다. 버저는 울리지 않고 있다. 노말 모드에 놓여있다. 알람시간이 곧 도래한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람시간이 도래하여 버저가 울릴때 사용자 입력으로 종료한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람 객체는 1-3개 꺼져있다. 선택되어 있는 객체는 꺼져있다. Edit 모드에 놓여있고, Hour 커서에 놓여있다. 타이머에 의해 버저가 울리고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람 객체는 1-3개 꺼져있다. 선택되어 있는 객체는 꺼져있다. Edit 모드에 놓여있고, Minute 커서에 놓여있다. 타이머에 의해 버저가 울리고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">알람 객체는 1-3개 꺼져있다. 선택되어 있는 객체는 꺼져있다. Edit 모드에 놓여있고, Hour 커서에 놓여있다. 버저는 울리지 않고 있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">알람 객체는 1-3개 꺼져있다. 선택되어 있는 객체는 꺼져있다. Edit 모드에 놓여있고, Minute 커서에 놓여있다. 버저는 울리지 않고 있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정한 대로 알람 시각이 화면에 전시된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람 객체는 1-3개 꺼져있다. 선택된 알람 객체는 꺼져있다. 버저는 울리지 않고 있다. 노말 모드에 놓여있다. 알람시간이 곧 도래한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람 객체는 1-3개 꺼져있다. 선택된 알람 객체는 꺼져있다. 버저는 울리지 않고 있다 Edit 모드에 놓여있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람시간이 도래하여 버저가 5분간 울린다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 객체의 알람시간이 도래하여 버저가 5분간 울린다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람 객체는 모두 켜져있다. 선택되어 있는 객체도 역시 켜져있다. Normal 모드에 놓여있다. 버저가 울리고 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알람 객체는 모두 켜져있다. 선택되어 있는 객체도 역시 켜져있다. Normal 모드에 놓여있다. 버저가 울리지 않고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어느 객체의 알람시간이 도래하여 버저가 5분간 울린다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스탑워치 상태는 Off이다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간이 0시 0분 0초로 초기화된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간이 1초마다 증가한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스탑워치 상태는 Run이다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흘러가던 시간이 멈추고 상태표시가 Pus가 된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스탑워치 상태는 Pus이다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간이 흘러가지 않는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탑워치는 Edit 상태이다. 커서가 Hour에 놓여있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탑워치는 Edit 상태이다. 커서가 Minute에 놓여있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 선택된 도시는 SEL 이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 선택된 도시는 PAR 이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 선택된 도시는 LON 이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 선택된 도시는 NYC 이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준 도시가 SEL에서, 선택한 다른 도시로 표시된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준 도시가 PAR에서, 선택한 다른 도시로 표시된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준 도시가 LON에서, 선택한 다른 도시로 표시된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준 도시가 NYC에서, 선택한 다른 도시로 표시된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임의의 도시로 전환 후
+Adjust 1회
+TimeKeeping으로 돌아감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">버튼 효과음이 켜져있다. TimeKeeping 모드를 보고있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4개의 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4개의 버튼클릭에 효과음이 발생한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 효과음이 켜져있다. TimeKeeping 모드를 보고있다.  알람시간 도래를 기다린다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 효과음이 켜져있다. TimeKeeping 모드를 보고있다.  타이머 시간 도래를 기다린다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 도래 시 버저가 울린다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forward를 1초간 누른다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여전히 TimeKeeping 모드에 놓여있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">버튼 효과음이 꺼져있다. TimeKeeping 모드를 보고있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 효과음이 꺼져있다. TimeKeeping 모드를 보고있다.  알람시간 도래를 기다린다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 효과음이 꺼져있다. TimeKeeping 모드를 보고있다.  타이머 시간 도래를 기다린다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">버튼 효과음이 켜져있다. TimeKeeping 이외 모드를 보고있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 효과음이 켜져있다. TimeKeeping 이외 모드를 보고있다.  알람시간 도래를 기다린다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 효과음이 켜져있다. TimeKeeping 이외 모드를 보고있다.  타이머 시간 도래를 기다린다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">버튼 효과음이 꺼져있다. TimeKeeping 이외 모드를 보고있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 효과음이 꺼져있다. TimeKeeping 이외 모드를 보고있다.  알람시간 도래를 기다린다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 효과음이 꺼져있다. TimeKeeping 이외 모드를 보고있다.  타이머 시간 도래를 기다린다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common/SoundEffectOff/ModeTimeKeeping/GoBackToTimeKeeping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4개의 버튼클릭에 효과음이 발생하지 않는다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeKeeping 모드로 이동된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common/SoundEffectOff/Else/GoBackToTimeKeeping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common/SoundEffectOn/Else/GoBackToTimeKeeping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스펙 변경에 의해 사려져야 할 테스트
+Pus는 존재하지 않는 타이머 상태입니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,16 +1017,58 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -59,12 +1076,245 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -345,12 +1595,2343 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="A1:F117"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="32.125" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="6" width="29.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>17</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>18</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>19</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>20</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
+        <v>21</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
+        <v>22</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1">
+        <v>23</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
+        <v>24</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1">
+        <v>25</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="1">
+        <v>26</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1">
+        <v>27</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1">
+        <v>28</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1">
+        <v>29</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1">
+        <v>30</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1">
+        <v>31</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1">
+        <v>32</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1">
+        <v>33</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1">
+        <v>34</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1">
+        <v>35</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="1">
+        <v>36</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="1">
+        <v>37</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A39" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="1">
+        <v>38</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="1">
+        <v>39</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="1">
+        <v>40</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1">
+        <v>41</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1">
+        <v>42</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="1">
+        <v>43</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="1">
+        <v>44</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="1">
+        <v>45</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" s="1">
+        <v>46</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="1">
+        <v>47</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="1">
+        <v>48</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="1">
+        <v>49</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="1">
+        <v>50</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="1">
+        <v>51</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="1">
+        <v>52</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="1">
+        <v>53</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" s="1">
+        <v>54</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="E55" s="16"/>
+      <c r="F55" s="15"/>
+    </row>
+    <row r="56" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="1">
+        <v>55</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="E56" s="16"/>
+      <c r="F56" s="15"/>
+    </row>
+    <row r="57" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="1">
+        <v>56</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="E57" s="16"/>
+      <c r="F57" s="15"/>
+    </row>
+    <row r="58" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="1">
+        <v>57</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="E58" s="16"/>
+      <c r="F58" s="15"/>
+    </row>
+    <row r="59" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" s="1">
+        <v>58</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="E59" s="16"/>
+      <c r="F59" s="15"/>
+    </row>
+    <row r="60" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="1">
+        <v>59</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="E60" s="16"/>
+      <c r="F60" s="15"/>
+    </row>
+    <row r="61" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="1">
+        <v>60</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="1">
+        <v>61</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="1">
+        <v>62</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="1">
+        <v>63</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="1">
+        <v>64</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="1">
+        <v>65</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="1">
+        <v>66</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" s="1">
+        <v>67</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="1">
+        <v>68</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="1">
+        <v>69</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="1">
+        <v>70</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" s="1">
+        <v>71</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="1">
+        <v>72</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="1">
+        <v>73</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="1">
+        <v>74</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" s="1">
+        <v>75</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="1">
+        <v>76</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="1">
+        <v>77</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="1">
+        <v>78</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="1">
+        <v>79</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="1">
+        <v>80</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="1">
+        <v>81</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" s="1">
+        <v>82</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" s="1">
+        <v>83</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="1">
+        <v>84</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" s="1">
+        <v>85</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="1">
+        <v>86</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" s="1">
+        <v>87</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" s="1">
+        <v>88</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" s="1">
+        <v>89</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" s="1">
+        <v>90</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" s="1">
+        <v>91</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" s="1">
+        <v>92</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" s="1">
+        <v>93</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" s="1">
+        <v>94</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" s="1">
+        <v>95</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" s="1">
+        <v>96</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="1">
+        <v>97</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="1">
+        <v>98</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="1">
+        <v>99</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" s="1">
+        <v>100</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" s="1">
+        <v>101</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" s="1">
+        <v>102</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="1">
+        <v>103</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" s="1">
+        <v>104</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" s="1">
+        <v>105</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" s="1">
+        <v>106</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" s="1">
+        <v>107</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1">
+        <v>108</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" s="1">
+        <v>109</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="1">
+        <v>110</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" s="1">
+        <v>111</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" s="1">
+        <v>112</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" s="1">
+        <v>113</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" s="1">
+        <v>114</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" s="1">
+        <v>115</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1">
+        <v>116</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="D56:F56"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -361,7 +3942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA991DCF-D0C7-493C-9A0A-83C276513055}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/combinatorial/testcase/combinatorial 테스트케이스 A4.xlsx
+++ b/combinatorial/testcase/combinatorial 테스트케이스 A4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\연구와 레포지토리\vnv-team-3\combinatorial\testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C697A90A-BDF7-4E9E-A1D0-CCE6573CED0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D473127E-6B27-4092-B9AF-CDB80BBD2456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13920" yWindow="5505" windowWidth="15225" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테스트케이스 포맷" sheetId="1" r:id="rId1"/>
@@ -1068,7 +1068,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1224,96 +1224,56 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1597,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="A1:F117"/>
+    <sheetView tabSelected="1" topLeftCell="B38" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1612,2314 +1572,2314 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="8" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="8" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="8" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="6">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="8" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="8" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="6">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="8" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="6">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="8" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="6">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="8" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="6">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="8" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="6">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="8" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="6">
         <v>11</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="8" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="6">
         <v>12</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="8" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="6">
         <v>13</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="8" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="6">
         <v>14</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="8" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="6">
         <v>15</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="8" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="6">
         <v>16</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="8" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="6">
         <v>17</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="8" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="6">
         <v>18</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="8" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="6">
         <v>19</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="8" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="6">
         <v>20</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="8" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="6">
         <v>21</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="8" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="6">
         <v>22</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="8" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="6">
         <v>23</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="8" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="6">
         <v>24</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="8" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="6">
         <v>25</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="8" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="6">
         <v>26</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="8" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="6">
         <v>27</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="8" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="6">
         <v>28</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="8" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="6">
         <v>29</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="8" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="6">
         <v>30</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="8" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="6">
         <v>31</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="8" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="6">
         <v>32</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="8" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="6">
         <v>33</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="8" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="6">
         <v>34</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="8" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="6">
         <v>35</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="8" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="6">
         <v>36</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="8" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="6">
         <v>37</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="8" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="6">
         <v>38</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="8" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="6">
         <v>39</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="8" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="6">
         <v>40</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="8" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="6">
         <v>41</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="8" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="6">
         <v>42</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="8" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="6">
         <v>43</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="8" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="6">
         <v>44</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="8" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="6">
         <v>45</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="8" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="6">
         <v>46</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="8" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="6">
         <v>47</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="8" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="6">
         <v>48</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="8" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="6">
         <v>49</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="8" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="6">
         <v>50</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="8" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="6">
         <v>51</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="8" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="6">
         <v>52</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F53" s="8" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="6">
         <v>53</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F54" s="8" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="6">
         <v>54</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="D55" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="E55" s="16"/>
-      <c r="F55" s="15"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="12"/>
     </row>
     <row r="56" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="6">
         <v>55</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="D56" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="E56" s="16"/>
-      <c r="F56" s="15"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="12"/>
     </row>
     <row r="57" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="6">
         <v>56</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="D57" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="E57" s="16"/>
-      <c r="F57" s="15"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="12"/>
     </row>
     <row r="58" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="6">
         <v>57</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D58" s="14" t="s">
+      <c r="D58" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="E58" s="16"/>
-      <c r="F58" s="15"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="12"/>
     </row>
     <row r="59" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B59" s="6">
         <v>58</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="D59" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="E59" s="16"/>
-      <c r="F59" s="15"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="12"/>
     </row>
     <row r="60" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B60" s="6">
         <v>59</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="D60" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="E60" s="16"/>
-      <c r="F60" s="15"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="12"/>
     </row>
     <row r="61" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B61" s="6">
         <v>60</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F61" s="8" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B62" s="6">
         <v>61</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="8" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B63" s="6">
         <v>62</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="8" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B64" s="6">
         <v>63</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F64" s="8" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B65" s="6">
         <v>64</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F65" s="8" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B66" s="6">
         <v>65</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="8" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B67" s="6">
         <v>66</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E67" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F67" s="8" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B68" s="6">
         <v>67</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F68" s="8" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B69" s="6">
         <v>68</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="F69" s="8" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B70" s="6">
         <v>69</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="F70" s="8" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B71" s="6">
         <v>70</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="F71" s="8" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B72" s="6">
         <v>71</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="F72" s="8" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B73" s="6">
         <v>72</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="F73" s="8" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B74" s="6">
         <v>73</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="F74" s="8" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B75" s="6">
         <v>74</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="F75" s="8" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B76" s="6">
         <v>75</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="F76" s="8" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B77" s="6">
         <v>76</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E77" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="F77" s="8" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B78" s="6">
         <v>77</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E78" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="F78" s="8" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B79" s="6">
         <v>78</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E79" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="F79" s="8" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B80" s="6">
         <v>79</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E80" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="F80" s="8" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B81" s="6">
         <v>80</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C81" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E81" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="F81" s="8" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B82" s="6">
         <v>81</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E82" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="F82" s="8" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B83" s="6">
         <v>82</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E83" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="F83" s="8" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B84" s="6">
         <v>83</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C84" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E84" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F84" s="5" t="s">
+      <c r="F84" s="8" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B85" s="6">
         <v>84</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C85" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E85" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F85" s="5" t="s">
+      <c r="F85" s="8" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B86" s="6">
         <v>85</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C86" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E86" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F86" s="5" t="s">
+      <c r="F86" s="8" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B87" s="6">
         <v>86</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C87" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E87" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F87" s="5" t="s">
+      <c r="F87" s="8" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B88" s="6">
         <v>87</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E88" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F88" s="5" t="s">
+      <c r="F88" s="8" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B89" s="6">
         <v>88</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C89" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E89" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F89" s="5" t="s">
+      <c r="F89" s="8" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B90" s="6">
         <v>89</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C90" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="E90" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F90" s="5" t="s">
+      <c r="F90" s="8" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B91" s="6">
         <v>90</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E91" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F91" s="5" t="s">
+      <c r="F91" s="8" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B92" s="6">
         <v>91</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C92" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="E92" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F92" s="5" t="s">
+      <c r="F92" s="8" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B93" s="6">
         <v>92</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C93" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E93" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F93" s="5" t="s">
+      <c r="F93" s="8" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B94" s="6">
         <v>93</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E94" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F94" s="5" t="s">
+      <c r="F94" s="8" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="33" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B95" s="6">
         <v>94</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C95" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E95" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="F95" s="8" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B96" s="6">
         <v>95</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="E96" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F96" s="5" t="s">
+      <c r="F96" s="8" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B97" s="6">
         <v>96</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C97" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E97" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F97" s="5" t="s">
+      <c r="F97" s="8" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B98" s="6">
         <v>97</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C98" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="E98" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F98" s="5" t="s">
+      <c r="F98" s="8" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B99" s="6">
         <v>98</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E99" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F99" s="5" t="s">
+      <c r="F99" s="8" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B100" s="6">
         <v>99</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C100" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E100" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F100" s="5" t="s">
+      <c r="F100" s="8" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B101" s="6">
         <v>100</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="E101" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F101" s="5" t="s">
+      <c r="F101" s="8" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B102" s="6">
         <v>101</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E102" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F102" s="5" t="s">
+      <c r="F102" s="8" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B103" s="6">
         <v>102</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="E103" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F103" s="5" t="s">
+      <c r="F103" s="8" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B104" s="6">
         <v>103</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E104" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F104" s="5" t="s">
+      <c r="F104" s="8" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B105" s="6">
         <v>104</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C105" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D105" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="E105" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F105" s="5" t="s">
+      <c r="F105" s="8" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B106" s="6">
         <v>105</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E106" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F106" s="5" t="s">
+      <c r="F106" s="8" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B107" s="6">
         <v>106</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C107" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D107" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="E107" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F107" s="5" t="s">
+      <c r="F107" s="8" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B108" s="6">
         <v>107</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C108" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="E108" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F108" s="5" t="s">
+      <c r="F108" s="8" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1">
+      <c r="A109" s="5"/>
+      <c r="B109" s="6">
         <v>108</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C109" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D109" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="E109" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F109" s="5" t="s">
+      <c r="F109" s="8" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B110" s="6">
         <v>109</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C110" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D110" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="E110" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F110" s="5" t="s">
+      <c r="F110" s="8" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B111" s="6">
         <v>110</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C111" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D111" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="E111" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F111" s="5" t="s">
+      <c r="F111" s="8" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B112" s="6">
         <v>111</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D112" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E112" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F112" s="5" t="s">
+      <c r="F112" s="8" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B113" s="6">
         <v>112</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C113" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D113" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="E113" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F113" s="5" t="s">
+      <c r="F113" s="8" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B114" s="6">
         <v>113</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C114" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D114" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="E114" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F114" s="5" t="s">
+      <c r="F114" s="8" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B115" s="6">
         <v>114</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C115" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D115" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E115" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F115" s="5" t="s">
+      <c r="F115" s="8" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B116" s="6">
         <v>115</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C116" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D116" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="E116" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F116" s="5" t="s">
+      <c r="F116" s="8" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1">
+      <c r="A117" s="5"/>
+      <c r="B117" s="13">
         <v>116</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="C117" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D117" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="E117" s="3" t="s">
+      <c r="E117" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="F117" s="7" t="s">
+      <c r="F117" s="15" t="s">
         <v>262</v>
       </c>
     </row>

--- a/combinatorial/testcase/combinatorial 테스트케이스 A4.xlsx
+++ b/combinatorial/testcase/combinatorial 테스트케이스 A4.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\연구와 레포지토리\vnv-team-3\combinatorial\testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D473127E-6B27-4092-B9AF-CDB80BBD2456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B593A103-901B-4717-8711-753311DC3077}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13920" yWindow="5505" windowWidth="15225" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="테스트케이스 포맷" sheetId="1" r:id="rId1"/>
-    <sheet name="테스트 실행 포맷" sheetId="2" r:id="rId2"/>
+    <sheet name="카테고리 포맷" sheetId="3" r:id="rId1"/>
+    <sheet name="테스트케이스 포맷" sheetId="1" r:id="rId2"/>
+    <sheet name="테스트 실행 포맷" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="415">
   <si>
     <t>테스트 스위트</t>
   </si>
@@ -995,6 +996,663 @@
   </si>
   <si>
     <t>순번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alarm Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alarm Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buzzer Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current Field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>의미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활성화된 알람의 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택된 알람의 활성화 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버저음이 울리는지 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모드 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 커서가 선택중인 필드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All off.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Has off.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All on.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[property AllAlarmOff]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[property AllAlarmOn]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[if !AllAlarmOff] [property AlarmOn]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[if !AllAlarmOn] [property AlarmOff]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[property Ringing]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minute</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[if AlarmOff] [property Edit]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[if Edit]</t>
+  </si>
+  <si>
+    <t>[if Edit]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move Field Forward</t>
+  </si>
+  <si>
+    <t>Move Field Forward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buzzer Off</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check Buzzer Rings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[if Ringing]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[if !AllAlarmOff &amp;&amp; !Ringing]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mode Activation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDAY is not Activated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDAY is Activated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[error]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDAY On Count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활성화된 DDAY의 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No DDAY on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3 DDAYs On</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 DDAYs On</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[property NoOn]</t>
+  </si>
+  <si>
+    <t>[property AllOn]</t>
+  </si>
+  <si>
+    <t>Selected DDAY Activation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택된 DDAY의 활성상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDAY 모드가 활성인가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[if !NoOn] [property On]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[if !AllOn] [property Off]</t>
+  </si>
+  <si>
+    <t>[property Normal]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[property Edit]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field To Edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정 대상 필드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[if Edit] </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move DDAY Forward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On Selected DDAY</t>
+  </si>
+  <si>
+    <t>Move Backward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Off Selected DDAY</t>
+  </si>
+  <si>
+    <t>[if Normal]</t>
+  </si>
+  <si>
+    <t>[if Normal]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[if Off &amp;&amp; Normal]</t>
+  </si>
+  <si>
+    <t>[if On &amp;&amp; Normal]</t>
+  </si>
+  <si>
+    <t>ModeChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StopWatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StopWatch Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스톱워치의 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit Field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[property Run]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[property Pus]</t>
+  </si>
+  <si>
+    <t>Stop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[if !Edit &amp;&amp; !Run]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[if !Edit &amp;&amp; Run]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeKeeping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[property DDAYOn]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDAYIsOn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDAYIsOff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Month</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move DDAY Backward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check Clock Going</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[if Normal &amp;&amp; DDAYOn]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timer Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timer Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Currnet Field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zero</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Future</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mintue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stop Ringing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이머 세팅 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이머 활성 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[property TimeZero] [single]</t>
+  </si>
+  <si>
+    <t>[property Off]</t>
+  </si>
+  <si>
+    <t>[if Normal] [property Ringing]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[if Normal &amp;&amp; !Run &amp;&amp; !Ringing]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[if Normal &amp;&amp; Run &amp;&amp; !Ringing]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[if Normal &amp;&amp; !Ringing]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>World Time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current City</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 선택된 도시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LON</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NYC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select Other City</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mode Change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Activated Mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>활성 모드의 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>four</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>more</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>less</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move Forward</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button Sound Effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current Mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Else</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Press And Listen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wait Alaram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wait Timer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go Back To TimeKeeping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[property On]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 효과음 활성여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 선택된 모드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>큰</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>분류</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>테스트</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>케이스</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorldTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1002,7 +1660,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1052,6 +1710,43 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="나눔스퀘어"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="나눔스퀘어"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="나눔스퀘어"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="나눔스퀘어"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1228,7 +1923,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1260,12 +1955,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1274,6 +1963,69 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1554,11 +2306,1238 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FA8F97-B78E-4392-978B-DEEB582701C6}">
+  <dimension ref="A1:E90"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19" style="16" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="24.625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="25.625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="33.375" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>284</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="22"/>
+      <c r="B9" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="22"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="22"/>
+      <c r="B22" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="22"/>
+      <c r="B24" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="22"/>
+      <c r="B26" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="22"/>
+      <c r="B27" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="22"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="22"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="24" t="s">
+        <v>336</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="22"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="22"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="22"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="22"/>
+      <c r="B36" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="22"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="22"/>
+      <c r="B38" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="22"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="22"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="22"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="22"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="22"/>
+      <c r="B44" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="22"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="22"/>
+      <c r="B46" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="22"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="22"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="22"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="22"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="22"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="22"/>
+      <c r="B52" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="C52" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="22"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="22"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="22"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="E55" s="25" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="22"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="E57" s="25"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="22"/>
+      <c r="B58" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="22"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="22"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="E60" s="25" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="22"/>
+      <c r="B61" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="E61" s="25" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="22"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="E62" s="25" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="22"/>
+      <c r="B63" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="E63" s="25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="22"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="E64" s="25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="22"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="E65" s="25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="22"/>
+      <c r="B66" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="E66" s="25" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="22"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="E67" s="25" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="22"/>
+      <c r="B68" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="E68" s="25" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="22"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="E69" s="25" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="22"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="23"/>
+      <c r="D70" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="E70" s="25" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="22"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="23"/>
+      <c r="D71" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="E71" s="25" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="D72" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="E72" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="22"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="E73" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="22"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="23"/>
+      <c r="D74" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="E74" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="22"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="E75" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="22"/>
+      <c r="B76" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="E76" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="E77" s="26" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="22"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="23"/>
+      <c r="D78" s="24" t="s">
+        <v>396</v>
+      </c>
+      <c r="E78" s="26"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="22"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="23"/>
+      <c r="D79" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="E79" s="26"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="22"/>
+      <c r="B80" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="D80" s="24" t="s">
+        <v>398</v>
+      </c>
+      <c r="E80" s="26" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="22"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="E81" s="26"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="22"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="23"/>
+      <c r="D82" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="E82" s="26"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="B83" s="23" t="s">
+        <v>401</v>
+      </c>
+      <c r="C83" s="23" t="s">
+        <v>409</v>
+      </c>
+      <c r="D83" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="E83" s="25" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="22"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="23"/>
+      <c r="D84" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="E84" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="22"/>
+      <c r="B85" s="23" t="s">
+        <v>402</v>
+      </c>
+      <c r="C85" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="D85" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="E85" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="22"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="23"/>
+      <c r="D86" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="E86" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="22"/>
+      <c r="B87" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="D87" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="E87" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="22"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="23"/>
+      <c r="D88" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="E88" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="22"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="E89" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="27"/>
+      <c r="B90" s="28"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="29" t="s">
+        <v>407</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="70">
+    <mergeCell ref="E80:E82"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="A83:A90"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C87:C90"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A56:A71"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="A42:A55"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="C46:C51"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="A17:A31"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B16"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B38" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1569,9 +3548,11 @@
     <col min="4" max="4" width="32.125" customWidth="1"/>
     <col min="5" max="5" width="13.875" customWidth="1"/>
     <col min="6" max="6" width="29.25" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1590,8 +3571,14 @@
       <c r="F1" s="4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="I1" s="31" t="s">
+        <v>411</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1610,8 +3597,15 @@
       <c r="F2" s="8" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="I2" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="J2" s="17">
+        <f>G8</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1630,8 +3624,15 @@
       <c r="F3" s="8" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="I3" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="J3" s="17">
+        <f>G25</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1650,8 +3651,15 @@
       <c r="F4" s="8" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="I4" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="J4" s="17">
+        <f>G41</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1670,8 +3678,15 @@
       <c r="F5" s="8" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="I5" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="J5" s="17">
+        <f>G60</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -1690,8 +3705,15 @@
       <c r="F6" s="8" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="I6" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="J6" s="17">
+        <f>G90</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
@@ -1710,8 +3732,15 @@
       <c r="F7" s="8" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="I7" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="J7" s="17">
+        <f>G97</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
@@ -1730,8 +3759,19 @@
       <c r="F8" s="8" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <f>COUNTIF(C2:C8, "*")</f>
+        <v>7</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>413</v>
+      </c>
+      <c r="J8" s="17">
+        <f>G101</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
@@ -1750,8 +3790,15 @@
       <c r="F9" s="8" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="I9" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="J9" s="17">
+        <f>G117</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="66.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>3</v>
       </c>
@@ -1770,8 +3817,15 @@
       <c r="F10" s="8" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="I10" s="34" t="s">
+        <v>414</v>
+      </c>
+      <c r="J10" s="18">
+        <f>SUM(J2:J9)</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
@@ -1791,7 +3845,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="66" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>3</v>
       </c>
@@ -1811,7 +3865,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
@@ -1831,7 +3885,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
@@ -1851,7 +3905,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>3</v>
       </c>
@@ -1871,7 +3925,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>3</v>
       </c>
@@ -1891,7 +3945,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>3</v>
       </c>
@@ -1911,7 +3965,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
@@ -1931,7 +3985,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>3</v>
       </c>
@@ -1951,7 +4005,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>3</v>
       </c>
@@ -1971,7 +4025,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>3</v>
       </c>
@@ -1991,7 +4045,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>3</v>
       </c>
@@ -2011,7 +4065,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>3</v>
       </c>
@@ -2031,7 +4085,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>3</v>
       </c>
@@ -2051,7 +4105,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>3</v>
       </c>
@@ -2070,8 +4124,12 @@
       <c r="F25" s="8" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="G25">
+        <f>COUNTIF(C9:C25, "*")</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>4</v>
       </c>
@@ -2091,7 +4149,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>4</v>
       </c>
@@ -2111,7 +4169,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>4</v>
       </c>
@@ -2131,7 +4189,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>4</v>
       </c>
@@ -2151,7 +4209,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>4</v>
       </c>
@@ -2171,7 +4229,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>4</v>
       </c>
@@ -2191,7 +4249,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>4</v>
       </c>
@@ -2211,7 +4269,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>4</v>
       </c>
@@ -2231,7 +4289,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>4</v>
       </c>
@@ -2251,7 +4309,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>4</v>
       </c>
@@ -2271,7 +4329,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>4</v>
       </c>
@@ -2291,7 +4349,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>4</v>
       </c>
@@ -2311,7 +4369,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>4</v>
       </c>
@@ -2331,7 +4389,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>4</v>
       </c>
@@ -2351,7 +4409,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>4</v>
       </c>
@@ -2371,7 +4429,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>4</v>
       </c>
@@ -2390,8 +4448,12 @@
       <c r="F41" s="8" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="G41">
+        <f>COUNTIF(C26:C41, "*")</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>5</v>
       </c>
@@ -2411,7 +4473,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>5</v>
       </c>
@@ -2431,7 +4493,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>5</v>
       </c>
@@ -2451,7 +4513,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>5</v>
       </c>
@@ -2471,7 +4533,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>5</v>
       </c>
@@ -2491,7 +4553,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>5</v>
       </c>
@@ -2511,7 +4573,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>5</v>
       </c>
@@ -2531,7 +4593,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>5</v>
       </c>
@@ -2551,7 +4613,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>5</v>
       </c>
@@ -2571,7 +4633,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>5</v>
       </c>
@@ -2591,7 +4653,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>5</v>
       </c>
@@ -2611,7 +4673,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>5</v>
       </c>
@@ -2631,7 +4693,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>5</v>
       </c>
@@ -2651,7 +4713,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>5</v>
       </c>
@@ -2661,13 +4723,13 @@
       <c r="C55" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="E55" s="11"/>
-      <c r="F55" s="12"/>
-    </row>
-    <row r="56" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E55" s="14"/>
+      <c r="F55" s="15"/>
+    </row>
+    <row r="56" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>5</v>
       </c>
@@ -2677,13 +4739,13 @@
       <c r="C56" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="12"/>
-    </row>
-    <row r="57" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E56" s="14"/>
+      <c r="F56" s="15"/>
+    </row>
+    <row r="57" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>5</v>
       </c>
@@ -2693,13 +4755,13 @@
       <c r="C57" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="E57" s="11"/>
-      <c r="F57" s="12"/>
-    </row>
-    <row r="58" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="E57" s="14"/>
+      <c r="F57" s="15"/>
+    </row>
+    <row r="58" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>5</v>
       </c>
@@ -2709,13 +4771,13 @@
       <c r="C58" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="E58" s="11"/>
-      <c r="F58" s="12"/>
-    </row>
-    <row r="59" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="E58" s="14"/>
+      <c r="F58" s="15"/>
+    </row>
+    <row r="59" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>5</v>
       </c>
@@ -2725,13 +4787,13 @@
       <c r="C59" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="E59" s="11"/>
-      <c r="F59" s="12"/>
-    </row>
-    <row r="60" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="E59" s="14"/>
+      <c r="F59" s="15"/>
+    </row>
+    <row r="60" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>5</v>
       </c>
@@ -2741,13 +4803,17 @@
       <c r="C60" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="E60" s="11"/>
-      <c r="F60" s="12"/>
-    </row>
-    <row r="61" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="E60" s="14"/>
+      <c r="F60" s="15"/>
+      <c r="G60">
+        <f>COUNTIF(C42:C60, "*")</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>6</v>
       </c>
@@ -2767,7 +4833,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>6</v>
       </c>
@@ -2787,7 +4853,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>6</v>
       </c>
@@ -2807,7 +4873,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>6</v>
       </c>
@@ -3147,7 +5213,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
         <v>6</v>
       </c>
@@ -3167,7 +5233,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
         <v>6</v>
       </c>
@@ -3187,7 +5253,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
         <v>6</v>
       </c>
@@ -3207,7 +5273,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
         <v>6</v>
       </c>
@@ -3227,7 +5293,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
         <v>6</v>
       </c>
@@ -3247,7 +5313,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
         <v>6</v>
       </c>
@@ -3267,7 +5333,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
         <v>6</v>
       </c>
@@ -3287,7 +5353,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
         <v>6</v>
       </c>
@@ -3307,7 +5373,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
         <v>6</v>
       </c>
@@ -3327,7 +5393,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A90" s="5" t="s">
         <v>6</v>
       </c>
@@ -3346,8 +5412,12 @@
       <c r="F90" s="8" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+      <c r="G90">
+        <f>COUNTIF(C61:C90, "*")</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A91" s="5" t="s">
         <v>7</v>
       </c>
@@ -3367,7 +5437,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A92" s="5" t="s">
         <v>7</v>
       </c>
@@ -3387,7 +5457,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A93" s="5" t="s">
         <v>7</v>
       </c>
@@ -3407,7 +5477,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="5" t="s">
         <v>7</v>
       </c>
@@ -3427,7 +5497,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A95" s="5" t="s">
         <v>7</v>
       </c>
@@ -3447,7 +5517,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A96" s="5" t="s">
         <v>7</v>
       </c>
@@ -3467,7 +5537,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A97" s="5" t="s">
         <v>7</v>
       </c>
@@ -3486,8 +5556,12 @@
       <c r="F97" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="G97">
+        <f>COUNTIF(C91:C97, "*")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>8</v>
       </c>
@@ -3507,7 +5581,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A99" s="5" t="s">
         <v>8</v>
       </c>
@@ -3527,7 +5601,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A100" s="5" t="s">
         <v>8</v>
       </c>
@@ -3547,7 +5621,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A101" s="5" t="s">
         <v>8</v>
       </c>
@@ -3566,8 +5640,12 @@
       <c r="F101" s="8" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+      <c r="G101">
+        <f>COUNTIF(C98:C101, "*")</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A102" s="5" t="s">
         <v>9</v>
       </c>
@@ -3587,7 +5665,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A103" s="5" t="s">
         <v>9</v>
       </c>
@@ -3607,7 +5685,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A104" s="5" t="s">
         <v>9</v>
       </c>
@@ -3627,7 +5705,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A105" s="5" t="s">
         <v>9</v>
       </c>
@@ -3647,7 +5725,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A106" s="5" t="s">
         <v>9</v>
       </c>
@@ -3667,7 +5745,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
         <v>9</v>
       </c>
@@ -3687,7 +5765,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A108" s="5" t="s">
         <v>9</v>
       </c>
@@ -3707,7 +5785,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A109" s="5"/>
       <c r="B109" s="6">
         <v>108</v>
@@ -3725,7 +5803,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A110" s="5" t="s">
         <v>9</v>
       </c>
@@ -3745,7 +5823,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A111" s="5" t="s">
         <v>9</v>
       </c>
@@ -3765,7 +5843,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A112" s="5" t="s">
         <v>9</v>
       </c>
@@ -3785,7 +5863,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="66" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" ht="66" x14ac:dyDescent="0.3">
       <c r="A113" s="5" t="s">
         <v>9</v>
       </c>
@@ -3805,7 +5883,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A114" s="5" t="s">
         <v>9</v>
       </c>
@@ -3825,7 +5903,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A115" s="5" t="s">
         <v>9</v>
       </c>
@@ -3845,7 +5923,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A116" s="5" t="s">
         <v>9</v>
       </c>
@@ -3865,22 +5943,32 @@
         <v>248</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="5"/>
-      <c r="B117" s="13">
+      <c r="B117" s="11">
         <v>116</v>
       </c>
-      <c r="C117" s="14" t="s">
+      <c r="C117" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="D117" s="14" t="s">
+      <c r="D117" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="E117" s="14" t="s">
+      <c r="E117" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="F117" s="15" t="s">
+      <c r="F117" s="13" t="s">
         <v>262</v>
+      </c>
+      <c r="G117">
+        <f>COUNTIF(C102:C117:C117, "*")</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G118">
+        <f>SUM(G2:G117)</f>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3898,11 +5986,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA991DCF-D0C7-493C-9A0A-83C276513055}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
